--- a/docs/easy-asthma-openasthma-dataset.xlsx
+++ b/docs/easy-asthma-openasthma-dataset.xlsx
@@ -5,23 +5,26 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moth\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m6500\Documents\NetBeansProjects\copdtest\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="17784"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="17790"/>
   </bookViews>
   <sheets>
     <sheet name="Follow-up" sheetId="1" r:id="rId1"/>
     <sheet name="DRUG" sheetId="3" r:id="rId2"/>
     <sheet name="SQL" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Follow-up'!$A$1:$F$67</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="156">
   <si>
     <t>COLUMN_NAME</t>
   </si>
@@ -422,12 +425,102 @@
   <si>
     <t>สีแดง คำนวนจาก DRUG ไม่ต้องส่งมา</t>
   </si>
+  <si>
+    <t>NIGHTSYMP</t>
+  </si>
+  <si>
+    <t>BCHDILATOR</t>
+  </si>
+  <si>
+    <t>Remark ชื่อ followUp.zul คือ</t>
+  </si>
+  <si>
+    <t>ใน followUp.zul ไม่มี</t>
+  </si>
+  <si>
+    <t>fv70</t>
+  </si>
+  <si>
+    <t>fv70x</t>
+  </si>
+  <si>
+    <t>fv71</t>
+  </si>
+  <si>
+    <t>fv71x</t>
+  </si>
+  <si>
+    <t>fv71xp</t>
+  </si>
+  <si>
+    <t>fv72</t>
+  </si>
+  <si>
+    <t>fv72x</t>
+  </si>
+  <si>
+    <t>fv72xp</t>
+  </si>
+  <si>
+    <t>fv73</t>
+  </si>
+  <si>
+    <t>fv73x</t>
+  </si>
+  <si>
+    <t>fv73xp</t>
+  </si>
+  <si>
+    <t>fv74</t>
+  </si>
+  <si>
+    <t>fv75</t>
+  </si>
+  <si>
+    <t>fv75x</t>
+  </si>
+  <si>
+    <t>fv75xp</t>
+  </si>
+  <si>
+    <t>fv76</t>
+  </si>
+  <si>
+    <t>fv76x</t>
+  </si>
+  <si>
+    <t>fv76xp</t>
+  </si>
+  <si>
+    <t>fv77</t>
+  </si>
+  <si>
+    <t>fv77x</t>
+  </si>
+  <si>
+    <t>fv77xp</t>
+  </si>
+  <si>
+    <t>FV14</t>
+  </si>
+  <si>
+    <t>addNew</t>
+  </si>
+  <si>
+    <t>fv141an1</t>
+  </si>
+  <si>
+    <t>fv141c</t>
+  </si>
+  <si>
+    <t>FVC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -442,8 +535,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,6 +552,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,11 +586,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,23 +880,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="42.5546875" customWidth="1"/>
-    <col min="5" max="5" width="56" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="86" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,8 +910,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -801,7 +928,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -815,7 +942,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -829,7 +956,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -843,7 +970,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -859,8 +986,11 @@
       <c r="E6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -874,7 +1004,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -888,7 +1018,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -902,7 +1032,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -916,7 +1046,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -930,7 +1060,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -944,51 +1074,55 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="F15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -997,12 +1131,12 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -1011,40 +1145,40 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1053,12 +1187,12 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1067,29 +1201,29 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1098,76 +1232,89 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>33</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>34</v>
       </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="F27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="F28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>38</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>39</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -1175,10 +1322,13 @@
       <c r="C29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -1186,10 +1336,13 @@
       <c r="C30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -1197,10 +1350,13 @@
       <c r="C31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -1208,10 +1364,13 @@
       <c r="C32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -1219,10 +1378,13 @@
       <c r="C33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -1230,10 +1392,13 @@
       <c r="C34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -1241,10 +1406,13 @@
       <c r="C35" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -1252,32 +1420,41 @@
       <c r="C36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>47</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>4</v>
       </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>48</v>
-      </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>49</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -1285,10 +1462,13 @@
       <c r="C39" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>50</v>
+      <c r="F39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -1296,10 +1476,13 @@
       <c r="C40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>51</v>
+      <c r="F40" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -1307,10 +1490,13 @@
       <c r="C41" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -1318,10 +1504,13 @@
       <c r="C42" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -1329,10 +1518,13 @@
       <c r="C43" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -1340,10 +1532,13 @@
       <c r="C44" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -1351,10 +1546,13 @@
       <c r="C45" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -1362,100 +1560,99 @@
       <c r="C46" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="F46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3" t="s">
+      <c r="C48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3" t="s">
+      <c r="C49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="C50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="3" t="s">
+      <c r="C51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>61</v>
-      </c>
-      <c r="B51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E51" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>64</v>
       </c>
       <c r="B53" t="s">
         <v>62</v>
@@ -1463,16 +1660,16 @@
       <c r="C53" t="s">
         <v>5</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E53" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
         <v>62</v>
@@ -1487,9 +1684,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
         <v>62</v>
@@ -1504,9 +1701,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
         <v>62</v>
@@ -1521,9 +1718,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
         <v>62</v>
@@ -1538,9 +1735,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
         <v>62</v>
@@ -1555,37 +1752,43 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>74</v>
-      </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>76</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -1594,79 +1797,121 @@
         <v>5</v>
       </c>
       <c r="E61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="F63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B64" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="C64" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B65" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C63" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="C65" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>81</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
         <v>7</v>
       </c>
-      <c r="C64" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>82</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
         <v>7</v>
       </c>
-      <c r="C65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+    <row r="74" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F67"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1678,12 +1923,12 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>96</v>
       </c>
@@ -1691,7 +1936,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -1702,7 +1947,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -1713,7 +1958,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -1724,7 +1969,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -1746,9 +1991,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
